--- a/natmiOut/OldD2/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
   </si>
   <si>
     <t>Gpr1</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +540,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>66.37124347519109</v>
+        <v>0.878365</v>
       </c>
       <c r="H2">
-        <v>66.37124347519109</v>
+        <v>1.75673</v>
       </c>
       <c r="I2">
-        <v>0.8250811956818689</v>
+        <v>0.009452436795461589</v>
       </c>
       <c r="J2">
-        <v>0.8250811956818689</v>
+        <v>0.006670024516923835</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.40815785074986</v>
+        <v>1.4275125</v>
       </c>
       <c r="N2">
-        <v>1.40815785074986</v>
+        <v>2.855025</v>
       </c>
       <c r="O2">
-        <v>0.3164409398721165</v>
+        <v>0.2159646096484578</v>
       </c>
       <c r="P2">
-        <v>0.3164409398721165</v>
+        <v>0.1673162739818381</v>
       </c>
       <c r="Q2">
-        <v>93.46118756362075</v>
+        <v>1.2538770170625</v>
       </c>
       <c r="R2">
-        <v>93.46118756362075</v>
+        <v>5.01550806825</v>
       </c>
       <c r="S2">
-        <v>0.2610894690323802</v>
+        <v>0.002041391822758581</v>
       </c>
       <c r="T2">
-        <v>0.2610894690323802</v>
+        <v>0.001116003649539206</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -593,49 +602,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>66.37124347519109</v>
+        <v>0.878365</v>
       </c>
       <c r="H3">
-        <v>66.37124347519109</v>
+        <v>1.75673</v>
       </c>
       <c r="I3">
-        <v>0.8250811956818689</v>
+        <v>0.009452436795461589</v>
       </c>
       <c r="J3">
-        <v>0.8250811956818689</v>
+        <v>0.006670024516923835</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.70347071787891</v>
+        <v>1.681727</v>
       </c>
       <c r="N3">
-        <v>1.70347071787891</v>
+        <v>5.045180999999999</v>
       </c>
       <c r="O3">
-        <v>0.3828035860632968</v>
+        <v>0.254424052392026</v>
       </c>
       <c r="P3">
-        <v>0.3828035860632968</v>
+        <v>0.2956684745261299</v>
       </c>
       <c r="Q3">
-        <v>113.0614697691997</v>
+        <v>1.477170136355</v>
       </c>
       <c r="R3">
-        <v>113.0614697691997</v>
+        <v>8.863020818129998</v>
       </c>
       <c r="S3">
-        <v>0.3158440405004121</v>
+        <v>0.002404927274480833</v>
       </c>
       <c r="T3">
-        <v>0.3158440405004121</v>
+        <v>0.001972115973970757</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,433 +652,1735 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>66.37124347519109</v>
+        <v>0.878365</v>
       </c>
       <c r="H4">
-        <v>66.37124347519109</v>
+        <v>1.75673</v>
       </c>
       <c r="I4">
-        <v>0.8250811956818689</v>
+        <v>0.009452436795461589</v>
       </c>
       <c r="J4">
-        <v>0.8250811956818689</v>
+        <v>0.006670024516923835</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.33835774262078</v>
+        <v>0.2411293333333333</v>
       </c>
       <c r="N4">
-        <v>1.33835774262078</v>
+        <v>0.723388</v>
       </c>
       <c r="O4">
-        <v>0.3007554740645867</v>
+        <v>0.0364798223119771</v>
       </c>
       <c r="P4">
-        <v>0.3007554740645867</v>
+        <v>0.04239352888439643</v>
       </c>
       <c r="Q4">
-        <v>88.82846759239092</v>
+        <v>0.2117995668733333</v>
       </c>
       <c r="R4">
-        <v>88.82846759239092</v>
+        <v>1.27079740124</v>
       </c>
       <c r="S4">
-        <v>0.2481476861490765</v>
+        <v>0.000344823214713633</v>
       </c>
       <c r="T4">
-        <v>0.2481476861490765</v>
+        <v>0.000282765877017843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.87994370540315</v>
+        <v>0.878365</v>
       </c>
       <c r="H5">
-        <v>1.87994370540315</v>
+        <v>1.75673</v>
       </c>
       <c r="I5">
-        <v>0.02337015428750287</v>
+        <v>0.009452436795461589</v>
       </c>
       <c r="J5">
-        <v>0.02337015428750287</v>
+        <v>0.006670024516923835</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.40815785074986</v>
+        <v>0.07800366666666667</v>
       </c>
       <c r="N5">
-        <v>1.40815785074986</v>
+        <v>0.234011</v>
       </c>
       <c r="O5">
-        <v>0.3164409398721165</v>
+        <v>0.01180096946458619</v>
       </c>
       <c r="P5">
-        <v>0.3164409398721165</v>
+        <v>0.01371401251854674</v>
       </c>
       <c r="Q5">
-        <v>2.647257487731228</v>
+        <v>0.06851569067166666</v>
       </c>
       <c r="R5">
-        <v>2.647257487731228</v>
+        <v>0.41109414403</v>
       </c>
       <c r="S5">
-        <v>0.007395273587693782</v>
+        <v>0.0001115479179891731</v>
       </c>
       <c r="T5">
-        <v>0.007395273587693782</v>
+        <v>9.147279972410719E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.87994370540315</v>
+        <v>0.878365</v>
       </c>
       <c r="H6">
-        <v>1.87994370540315</v>
+        <v>1.75673</v>
       </c>
       <c r="I6">
-        <v>0.02337015428750287</v>
+        <v>0.009452436795461589</v>
       </c>
       <c r="J6">
-        <v>0.02337015428750287</v>
+        <v>0.006670024516923835</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.70347071787891</v>
+        <v>1.842907666666667</v>
       </c>
       <c r="N6">
-        <v>1.70347071787891</v>
+        <v>5.528723</v>
       </c>
       <c r="O6">
-        <v>0.3828035860632968</v>
+        <v>0.2788086513076536</v>
       </c>
       <c r="P6">
-        <v>0.3828035860632968</v>
+        <v>0.3240060357571966</v>
       </c>
       <c r="Q6">
-        <v>3.202429053415042</v>
+        <v>1.618745592631667</v>
       </c>
       <c r="R6">
-        <v>3.202429053415042</v>
+        <v>9.71247355579</v>
       </c>
       <c r="S6">
-        <v>0.008946178868108631</v>
+        <v>0.002635421154513485</v>
       </c>
       <c r="T6">
-        <v>0.008946178868108631</v>
+        <v>0.002161128202131802</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.87994370540315</v>
+        <v>0.878365</v>
       </c>
       <c r="H7">
-        <v>1.87994370540315</v>
+        <v>1.75673</v>
       </c>
       <c r="I7">
-        <v>0.02337015428750287</v>
+        <v>0.009452436795461589</v>
       </c>
       <c r="J7">
-        <v>0.02337015428750287</v>
+        <v>0.006670024516923835</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.33835774262078</v>
+        <v>1.338657</v>
       </c>
       <c r="N7">
-        <v>1.33835774262078</v>
+        <v>2.677314</v>
       </c>
       <c r="O7">
-        <v>0.3007554740645867</v>
+        <v>0.2025218948752992</v>
       </c>
       <c r="P7">
-        <v>0.3007554740645867</v>
+        <v>0.1569016743318924</v>
       </c>
       <c r="Q7">
-        <v>2.516037213817504</v>
+        <v>1.175829455805</v>
       </c>
       <c r="R7">
-        <v>2.516037213817504</v>
+        <v>4.70331782322</v>
       </c>
       <c r="S7">
-        <v>0.007028701831700461</v>
+        <v>0.001914325411005882</v>
       </c>
       <c r="T7">
-        <v>0.007028701831700461</v>
+        <v>0.001046538014540121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.1908878812912</v>
+        <v>73.76562</v>
       </c>
       <c r="H8">
-        <v>12.1908878812912</v>
+        <v>221.29686</v>
       </c>
       <c r="I8">
-        <v>0.1515486500306282</v>
+        <v>0.7938213165688949</v>
       </c>
       <c r="J8">
-        <v>0.1515486500306282</v>
+        <v>0.8402289946196978</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.40815785074986</v>
+        <v>1.4275125</v>
       </c>
       <c r="N8">
-        <v>1.40815785074986</v>
+        <v>2.855025</v>
       </c>
       <c r="O8">
-        <v>0.3164409398721165</v>
+        <v>0.2159646096484578</v>
       </c>
       <c r="P8">
-        <v>0.3164409398721165</v>
+        <v>0.1673162739818381</v>
       </c>
       <c r="Q8">
-        <v>17.16669447765153</v>
+        <v>105.30134462025</v>
       </c>
       <c r="R8">
-        <v>17.16669447765153</v>
+        <v>631.8080677215</v>
       </c>
       <c r="S8">
-        <v>0.04795619725204243</v>
+        <v>0.1714373107634262</v>
       </c>
       <c r="T8">
-        <v>0.04795619725204243</v>
+        <v>0.1405839846712738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.1908878812912</v>
+        <v>73.76562</v>
       </c>
       <c r="H9">
-        <v>12.1908878812912</v>
+        <v>221.29686</v>
       </c>
       <c r="I9">
-        <v>0.1515486500306282</v>
+        <v>0.7938213165688949</v>
       </c>
       <c r="J9">
-        <v>0.1515486500306282</v>
+        <v>0.8402289946196978</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.70347071787891</v>
+        <v>1.681727</v>
       </c>
       <c r="N9">
-        <v>1.70347071787891</v>
+        <v>5.045180999999999</v>
       </c>
       <c r="O9">
-        <v>0.3828035860632968</v>
+        <v>0.254424052392026</v>
       </c>
       <c r="P9">
-        <v>0.3828035860632968</v>
+        <v>0.2956684745261299</v>
       </c>
       <c r="Q9">
-        <v>20.76682053072442</v>
+        <v>124.05363482574</v>
       </c>
       <c r="R9">
-        <v>20.76682053072442</v>
+        <v>1116.48271343166</v>
       </c>
       <c r="S9">
-        <v>0.05801336669477603</v>
+        <v>0.2019672362366315</v>
       </c>
       <c r="T9">
-        <v>0.05801336669477603</v>
+        <v>0.2484292250918298</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>73.76562</v>
+      </c>
+      <c r="H10">
+        <v>221.29686</v>
+      </c>
+      <c r="I10">
+        <v>0.7938213165688949</v>
+      </c>
+      <c r="J10">
+        <v>0.8402289946196978</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2411293333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.723388</v>
+      </c>
+      <c r="O10">
+        <v>0.0364798223119771</v>
+      </c>
+      <c r="P10">
+        <v>0.04239352888439643</v>
+      </c>
+      <c r="Q10">
+        <v>17.78705477352</v>
+      </c>
+      <c r="R10">
+        <v>160.08349296168</v>
+      </c>
+      <c r="S10">
+        <v>0.02895846057589301</v>
+      </c>
+      <c r="T10">
+        <v>0.03562027215291753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>73.76562</v>
+      </c>
+      <c r="H11">
+        <v>221.29686</v>
+      </c>
+      <c r="I11">
+        <v>0.7938213165688949</v>
+      </c>
+      <c r="J11">
+        <v>0.8402289946196978</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07800366666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.234011</v>
+      </c>
+      <c r="O11">
+        <v>0.01180096946458619</v>
+      </c>
+      <c r="P11">
+        <v>0.01371401251854674</v>
+      </c>
+      <c r="Q11">
+        <v>5.753988833939999</v>
+      </c>
+      <c r="R11">
+        <v>51.78589950546</v>
+      </c>
+      <c r="S11">
+        <v>0.009367861117167134</v>
+      </c>
+      <c r="T11">
+        <v>0.01152291095066048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>73.76562</v>
+      </c>
+      <c r="H12">
+        <v>221.29686</v>
+      </c>
+      <c r="I12">
+        <v>0.7938213165688949</v>
+      </c>
+      <c r="J12">
+        <v>0.8402289946196978</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.842907666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.528723</v>
+      </c>
+      <c r="O12">
+        <v>0.2788086513076536</v>
+      </c>
+      <c r="P12">
+        <v>0.3240060357571966</v>
+      </c>
+      <c r="Q12">
+        <v>135.94322663442</v>
+      </c>
+      <c r="R12">
+        <v>1223.48903970978</v>
+      </c>
+      <c r="S12">
+        <v>0.2213242506518396</v>
+      </c>
+      <c r="T12">
+        <v>0.2722392656749831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>73.76562</v>
+      </c>
+      <c r="H13">
+        <v>221.29686</v>
+      </c>
+      <c r="I13">
+        <v>0.7938213165688949</v>
+      </c>
+      <c r="J13">
+        <v>0.8402289946196978</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.338657</v>
+      </c>
+      <c r="N13">
+        <v>2.677314</v>
+      </c>
+      <c r="O13">
+        <v>0.2025218948752992</v>
+      </c>
+      <c r="P13">
+        <v>0.1569016743318924</v>
+      </c>
+      <c r="Q13">
+        <v>98.74686357233999</v>
+      </c>
+      <c r="R13">
+        <v>592.48118143404</v>
+      </c>
+      <c r="S13">
+        <v>0.1607661972239374</v>
+      </c>
+      <c r="T13">
+        <v>0.1318333360780332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>12.1908878812912</v>
-      </c>
-      <c r="H10">
-        <v>12.1908878812912</v>
-      </c>
-      <c r="I10">
-        <v>0.1515486500306282</v>
-      </c>
-      <c r="J10">
-        <v>0.1515486500306282</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.33835774262078</v>
-      </c>
-      <c r="N10">
-        <v>1.33835774262078</v>
-      </c>
-      <c r="O10">
-        <v>0.3007554740645867</v>
-      </c>
-      <c r="P10">
-        <v>0.3007554740645867</v>
-      </c>
-      <c r="Q10">
-        <v>16.31576918534791</v>
-      </c>
-      <c r="R10">
-        <v>16.31576918534791</v>
-      </c>
-      <c r="S10">
-        <v>0.04557908608380973</v>
-      </c>
-      <c r="T10">
-        <v>0.04557908608380973</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.03164166666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.094925</v>
+      </c>
+      <c r="I14">
+        <v>0.00034050862029991</v>
+      </c>
+      <c r="J14">
+        <v>0.0003604151333836133</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>1.4275125</v>
+      </c>
+      <c r="N14">
+        <v>2.855025</v>
+      </c>
+      <c r="O14">
+        <v>0.2159646096484578</v>
+      </c>
+      <c r="P14">
+        <v>0.1673162739818381</v>
+      </c>
+      <c r="Q14">
+        <v>0.0451688746875</v>
+      </c>
+      <c r="R14">
+        <v>0.271013248125</v>
+      </c>
+      <c r="S14">
+        <v>7.3537811265005E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.030331720441339E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.03164166666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.094925</v>
+      </c>
+      <c r="I15">
+        <v>0.00034050862029991</v>
+      </c>
+      <c r="J15">
+        <v>0.0003604151333836133</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.681727</v>
+      </c>
+      <c r="N15">
+        <v>5.045180999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.254424052392026</v>
+      </c>
+      <c r="P15">
+        <v>0.2956684745261299</v>
+      </c>
+      <c r="Q15">
+        <v>0.05321264515833332</v>
+      </c>
+      <c r="R15">
+        <v>0.4789138064249999</v>
+      </c>
+      <c r="S15">
+        <v>8.663358305112078E-05</v>
+      </c>
+      <c r="T15">
+        <v>0.0001065633926836646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03164166666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.094925</v>
+      </c>
+      <c r="I16">
+        <v>0.00034050862029991</v>
+      </c>
+      <c r="J16">
+        <v>0.0003604151333836133</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2411293333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.723388</v>
+      </c>
+      <c r="O16">
+        <v>0.0364798223119771</v>
+      </c>
+      <c r="P16">
+        <v>0.04239352888439643</v>
+      </c>
+      <c r="Q16">
+        <v>0.007629733988888889</v>
+      </c>
+      <c r="R16">
+        <v>0.0686676059</v>
+      </c>
+      <c r="S16">
+        <v>1.24216939642372E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.52792693674718E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03164166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.094925</v>
+      </c>
+      <c r="I17">
+        <v>0.00034050862029991</v>
+      </c>
+      <c r="J17">
+        <v>0.0003604151333836133</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.07800366666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.234011</v>
+      </c>
+      <c r="O17">
+        <v>0.01180096946458619</v>
+      </c>
+      <c r="P17">
+        <v>0.01371401251854674</v>
+      </c>
+      <c r="Q17">
+        <v>0.002468166019444444</v>
+      </c>
+      <c r="R17">
+        <v>0.022213494175</v>
+      </c>
+      <c r="S17">
+        <v>4.01833183058761E-06</v>
+      </c>
+      <c r="T17">
+        <v>4.942737651096568E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.03164166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.094925</v>
+      </c>
+      <c r="I18">
+        <v>0.00034050862029991</v>
+      </c>
+      <c r="J18">
+        <v>0.0003604151333836133</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.842907666666667</v>
+      </c>
+      <c r="N18">
+        <v>5.528723</v>
+      </c>
+      <c r="O18">
+        <v>0.2788086513076536</v>
+      </c>
+      <c r="P18">
+        <v>0.3240060357571966</v>
+      </c>
+      <c r="Q18">
+        <v>0.05831267008611112</v>
+      </c>
+      <c r="R18">
+        <v>0.524814030775</v>
+      </c>
+      <c r="S18">
+        <v>9.493674918444785E-05</v>
+      </c>
+      <c r="T18">
+        <v>0.0001167766785945258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03164166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.094925</v>
+      </c>
+      <c r="I19">
+        <v>0.00034050862029991</v>
+      </c>
+      <c r="J19">
+        <v>0.0003604151333836133</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.338657</v>
+      </c>
+      <c r="N19">
+        <v>2.677314</v>
+      </c>
+      <c r="O19">
+        <v>0.2025218948752992</v>
+      </c>
+      <c r="P19">
+        <v>0.1569016743318924</v>
+      </c>
+      <c r="Q19">
+        <v>0.042357338575</v>
+      </c>
+      <c r="R19">
+        <v>0.25414403145</v>
+      </c>
+      <c r="S19">
+        <v>6.896045100451156E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.654973788244125E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.730150333333334</v>
+      </c>
+      <c r="H20">
+        <v>11.190451</v>
+      </c>
+      <c r="I20">
+        <v>0.0401416384571372</v>
+      </c>
+      <c r="J20">
+        <v>0.04248836333724298</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>1.4275125</v>
+      </c>
+      <c r="N20">
+        <v>2.855025</v>
+      </c>
+      <c r="O20">
+        <v>0.2159646096484578</v>
+      </c>
+      <c r="P20">
+        <v>0.1673162739818381</v>
+      </c>
+      <c r="Q20">
+        <v>5.324836227712501</v>
+      </c>
+      <c r="R20">
+        <v>31.949017366275</v>
+      </c>
+      <c r="S20">
+        <v>0.008669173280045159</v>
+      </c>
+      <c r="T20">
+        <v>0.007108994641174034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.730150333333334</v>
+      </c>
+      <c r="H21">
+        <v>11.190451</v>
+      </c>
+      <c r="I21">
+        <v>0.0401416384571372</v>
+      </c>
+      <c r="J21">
+        <v>0.04248836333724298</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.681727</v>
+      </c>
+      <c r="N21">
+        <v>5.045180999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.254424052392026</v>
+      </c>
+      <c r="P21">
+        <v>0.2956684745261299</v>
+      </c>
+      <c r="Q21">
+        <v>6.273094529625666</v>
+      </c>
+      <c r="R21">
+        <v>56.457850766631</v>
+      </c>
+      <c r="S21">
+        <v>0.01021299832592044</v>
+      </c>
+      <c r="T21">
+        <v>0.01256246957303458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.730150333333334</v>
+      </c>
+      <c r="H22">
+        <v>11.190451</v>
+      </c>
+      <c r="I22">
+        <v>0.0401416384571372</v>
+      </c>
+      <c r="J22">
+        <v>0.04248836333724298</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2411293333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.723388</v>
+      </c>
+      <c r="O22">
+        <v>0.0364798223119771</v>
+      </c>
+      <c r="P22">
+        <v>0.04239352888439643</v>
+      </c>
+      <c r="Q22">
+        <v>0.8994486631097779</v>
+      </c>
+      <c r="R22">
+        <v>8.095037967988</v>
+      </c>
+      <c r="S22">
+        <v>0.001464359838227992</v>
+      </c>
+      <c r="T22">
+        <v>0.001801231658388141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.730150333333334</v>
+      </c>
+      <c r="H23">
+        <v>11.190451</v>
+      </c>
+      <c r="I23">
+        <v>0.0401416384571372</v>
+      </c>
+      <c r="J23">
+        <v>0.04248836333724298</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.07800366666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.234011</v>
+      </c>
+      <c r="O23">
+        <v>0.01180096946458619</v>
+      </c>
+      <c r="P23">
+        <v>0.01371401251854674</v>
+      </c>
+      <c r="Q23">
+        <v>0.2909654032178889</v>
+      </c>
+      <c r="R23">
+        <v>2.618688628961</v>
+      </c>
+      <c r="S23">
+        <v>0.0004737102496911347</v>
+      </c>
+      <c r="T23">
+        <v>0.0005826859466995128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.730150333333334</v>
+      </c>
+      <c r="H24">
+        <v>11.190451</v>
+      </c>
+      <c r="I24">
+        <v>0.0401416384571372</v>
+      </c>
+      <c r="J24">
+        <v>0.04248836333724298</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.842907666666667</v>
+      </c>
+      <c r="N24">
+        <v>5.528723</v>
+      </c>
+      <c r="O24">
+        <v>0.2788086513076536</v>
+      </c>
+      <c r="P24">
+        <v>0.3240060357571966</v>
+      </c>
+      <c r="Q24">
+        <v>6.874322647119224</v>
+      </c>
+      <c r="R24">
+        <v>61.86890382407301</v>
+      </c>
+      <c r="S24">
+        <v>0.01119183607951387</v>
+      </c>
+      <c r="T24">
+        <v>0.01376648617071151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.730150333333334</v>
+      </c>
+      <c r="H25">
+        <v>11.190451</v>
+      </c>
+      <c r="I25">
+        <v>0.0401416384571372</v>
+      </c>
+      <c r="J25">
+        <v>0.04248836333724298</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.338657</v>
+      </c>
+      <c r="N25">
+        <v>2.677314</v>
+      </c>
+      <c r="O25">
+        <v>0.2025218948752992</v>
+      </c>
+      <c r="P25">
+        <v>0.1569016743318924</v>
+      </c>
+      <c r="Q25">
+        <v>4.993391854769</v>
+      </c>
+      <c r="R25">
+        <v>29.960351128614</v>
+      </c>
+      <c r="S25">
+        <v>0.00812956068373861</v>
+      </c>
+      <c r="T25">
+        <v>0.006666495347235214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>14.5189385</v>
+      </c>
+      <c r="H26">
+        <v>29.037877</v>
+      </c>
+      <c r="I26">
+        <v>0.1562440995582063</v>
+      </c>
+      <c r="J26">
+        <v>0.1102522023927517</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>1.4275125</v>
+      </c>
+      <c r="N26">
+        <v>2.855025</v>
+      </c>
+      <c r="O26">
+        <v>0.2159646096484578</v>
+      </c>
+      <c r="P26">
+        <v>0.1673162739818381</v>
+      </c>
+      <c r="Q26">
+        <v>20.72596619548125</v>
+      </c>
+      <c r="R26">
+        <v>82.90386478192501</v>
+      </c>
+      <c r="S26">
+        <v>0.03374319597096281</v>
+      </c>
+      <c r="T26">
+        <v>0.01844698770264672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>14.5189385</v>
+      </c>
+      <c r="H27">
+        <v>29.037877</v>
+      </c>
+      <c r="I27">
+        <v>0.1562440995582063</v>
+      </c>
+      <c r="J27">
+        <v>0.1102522023927517</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.681727</v>
+      </c>
+      <c r="N27">
+        <v>5.045180999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.254424052392026</v>
+      </c>
+      <c r="P27">
+        <v>0.2956684745261299</v>
+      </c>
+      <c r="Q27">
+        <v>24.4168908867895</v>
+      </c>
+      <c r="R27">
+        <v>146.501345320737</v>
+      </c>
+      <c r="S27">
+        <v>0.03975225697194201</v>
+      </c>
+      <c r="T27">
+        <v>0.03259810049461103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>14.5189385</v>
+      </c>
+      <c r="H28">
+        <v>29.037877</v>
+      </c>
+      <c r="I28">
+        <v>0.1562440995582063</v>
+      </c>
+      <c r="J28">
+        <v>0.1102522023927517</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.2411293333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.723388</v>
+      </c>
+      <c r="O28">
+        <v>0.0364798223119771</v>
+      </c>
+      <c r="P28">
+        <v>0.04239352888439643</v>
+      </c>
+      <c r="Q28">
+        <v>3.500941961212667</v>
+      </c>
+      <c r="R28">
+        <v>21.005651767276</v>
+      </c>
+      <c r="S28">
+        <v>0.005699756989178227</v>
+      </c>
+      <c r="T28">
+        <v>0.004673979926705442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>14.5189385</v>
+      </c>
+      <c r="H29">
+        <v>29.037877</v>
+      </c>
+      <c r="I29">
+        <v>0.1562440995582063</v>
+      </c>
+      <c r="J29">
+        <v>0.1102522023927517</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.07800366666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.234011</v>
+      </c>
+      <c r="O29">
+        <v>0.01180096946458619</v>
+      </c>
+      <c r="P29">
+        <v>0.01371401251854674</v>
+      </c>
+      <c r="Q29">
+        <v>1.132530439107833</v>
+      </c>
+      <c r="R29">
+        <v>6.795182634647</v>
+      </c>
+      <c r="S29">
+        <v>0.001843831847908157</v>
+      </c>
+      <c r="T29">
+        <v>0.001512000083811547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>14.5189385</v>
+      </c>
+      <c r="H30">
+        <v>29.037877</v>
+      </c>
+      <c r="I30">
+        <v>0.1562440995582063</v>
+      </c>
+      <c r="J30">
+        <v>0.1102522023927517</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.842907666666667</v>
+      </c>
+      <c r="N30">
+        <v>5.528723</v>
+      </c>
+      <c r="O30">
+        <v>0.2788086513076536</v>
+      </c>
+      <c r="P30">
+        <v>0.3240060357571966</v>
+      </c>
+      <c r="Q30">
+        <v>26.75706307351184</v>
+      </c>
+      <c r="R30">
+        <v>160.542378441071</v>
+      </c>
+      <c r="S30">
+        <v>0.04356220667260227</v>
+      </c>
+      <c r="T30">
+        <v>0.03572237903077559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14.5189385</v>
+      </c>
+      <c r="H31">
+        <v>29.037877</v>
+      </c>
+      <c r="I31">
+        <v>0.1562440995582063</v>
+      </c>
+      <c r="J31">
+        <v>0.1102522023927517</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.338657</v>
+      </c>
+      <c r="N31">
+        <v>2.677314</v>
+      </c>
+      <c r="O31">
+        <v>0.2025218948752992</v>
+      </c>
+      <c r="P31">
+        <v>0.1569016743318924</v>
+      </c>
+      <c r="Q31">
+        <v>19.4358786555945</v>
+      </c>
+      <c r="R31">
+        <v>77.743514622378</v>
+      </c>
+      <c r="S31">
+        <v>0.03164285110561285</v>
+      </c>
+      <c r="T31">
+        <v>0.01729875515420142</v>
       </c>
     </row>
   </sheetData>
